--- a/medicine/Enfance/Langelot_et_la_Clef_de_la_guerre/Langelot_et_la_Clef_de_la_guerre.xlsx
+++ b/medicine/Enfance/Langelot_et_la_Clef_de_la_guerre/Langelot_et_la_Clef_de_la_guerre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Langelot et La Clef de la Guerre est le trente-sixième roman d'espionnage pour la jeunesse de la série Langelot, écrite par le Lieutenant X, pseudonyme de Vladimir Volkoff. Il est publié pour la première fois en 1982.
@@ -513,7 +525,9 @@
           <t>Principaux personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sous-lieutenant Langelot : blond, 1,68 m, mince, « traits menus mais durs », yeux bleus.
 Capitaine Montferrand : chef de la section Protection du Service National d'Information Fonctionnelle, sous le nom de code « P1 ».
@@ -551,7 +565,9 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dispositif de déclenchement de la bombe atomique française se compose d'une boîte de couleur noire, nommée « Bellone » et de la clef qui permet son activation. Elle est en titane et mesure six centimètres : c'est la « Clef de la guerre ». Elle n'existe qu'en un seul exemplaire.
 </t>
@@ -582,7 +598,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le récit est composé d'un prologue et de 14 chapitres.
 Durant un séjour officiel en Italie, le président de la République se fait voler cette précieuse clef, dans l'enceinte même de l'ambassade française, le Palais Farnèse (prologue). 
@@ -620,14 +638,16 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lors des déplacements du Président de la République française, le code nucléaire est abrité dans un médaillon en or.
-Lors de son investiture, le 21 mai 1981 le président de la République François Mitterrand a oublié les codes nucléaires dans la poche de son costume avant de l'envoyer au nettoyage[1],[2].
+Lors de son investiture, le 21 mai 1981 le président de la République François Mitterrand a oublié les codes nucléaires dans la poche de son costume avant de l'envoyer au nettoyage,.
 Langelot révèle à Josiane, la secrétaire du commandant Audidbert, que « Langelot » est son nom de famille, qu'il a un prénom, « mais que personne ne l'utilise » (pages 47 et 48, édition Hachette).
 Bellone est le nom d'une déesse de la guerre, sans doute issue d'Egypte. Il existe à Rome les ruines d'un temple dédié à son culte.
 Le commandant Audibert mentionne des journaux fictifs : Seconde et Le Dindon déchaîné (titre également mentionné dans Le Montage), qui font penser assez naturellement à Minute et au Canard enchaîné (page 23 de l'édition Hachette).
-L'ambassadeur de France menace Langelot avec une canne-épée ; Vladimir Volkoff était un fervent amateur d'escrime[3].
+L'ambassadeur de France menace Langelot avec une canne-épée ; Vladimir Volkoff était un fervent amateur d'escrime.
 Depuis 1980 l'auteur connaît le succès et la popularité avec son roman Le Retournement, paru en 1979. En 1982, année de cet épisode de Langelot, son roman Le Montage rencontre de nouveau un fort succès.</t>
         </is>
       </c>
